--- a/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1939,7 +1939,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.06928862853590273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1209521793895375</v>
+        <v>0.1209521793895376</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07815256358240259</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02032123815742603</v>
+        <v>0.02127574822987496</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05666580774536747</v>
+        <v>0.05891011317047795</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0439207484165432</v>
+        <v>0.0450756488058281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09095500623333397</v>
+        <v>0.08959976578934636</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0503203424837894</v>
+        <v>0.050510550478472</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06671265562012819</v>
+        <v>0.06301506448307244</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06662386683549712</v>
+        <v>0.06749396993532711</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1003587051905619</v>
+        <v>0.1027299110570376</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04039690549097369</v>
+        <v>0.04021744359753081</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07059928053871888</v>
+        <v>0.06811566742650316</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06212124083581097</v>
+        <v>0.06103643001259408</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1035491579803879</v>
+        <v>0.1044806603138763</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06681867294727722</v>
+        <v>0.06793914515999754</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1336296333790016</v>
+        <v>0.1382407820667314</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1079814853855724</v>
+        <v>0.1054354424046213</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.153285057988057</v>
+        <v>0.1503856319424117</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1175464485409539</v>
+        <v>0.1164254505669647</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1418214405803477</v>
+        <v>0.1372522431426703</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1366883017177906</v>
+        <v>0.1371896653664198</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.152818685471014</v>
+        <v>0.1529512167641799</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0796409209255646</v>
+        <v>0.08156244050631847</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1216709560207026</v>
+        <v>0.1210786463051771</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1080371019779651</v>
+        <v>0.1070637880130194</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1447139040556727</v>
+        <v>0.1453709517943161</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04573657021614966</v>
+        <v>0.04644606835195524</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09288162738648525</v>
+        <v>0.0950804141369556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07764359564061629</v>
+        <v>0.07884698528107557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07183915974703427</v>
+        <v>0.06925935798333392</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05829866308486507</v>
+        <v>0.05537679951734252</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1197491425432389</v>
+        <v>0.1188347114893285</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.102288611011136</v>
+        <v>0.09946635843160113</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09878779242792803</v>
+        <v>0.1003130996593616</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05541643931513431</v>
+        <v>0.05669800368416125</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1145229510750266</v>
+        <v>0.113320676192363</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09637425282517662</v>
+        <v>0.09783965284690573</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0909763855302181</v>
+        <v>0.0909205410060791</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09082602834466723</v>
+        <v>0.09226596644212665</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1587094680193728</v>
+        <v>0.1606611700785507</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1337568692641913</v>
+        <v>0.1344500810492593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1244683984394099</v>
+        <v>0.1257069740202743</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1047870756797948</v>
+        <v>0.1033859890430761</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1824095468394302</v>
+        <v>0.1851402610913642</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1600925056264157</v>
+        <v>0.1607487616770638</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1450321098908854</v>
+        <v>0.1437169634461563</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08672371526226048</v>
+        <v>0.08770855269894846</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1601734512252353</v>
+        <v>0.1603121019780731</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1379911832141764</v>
+        <v>0.1382377247518627</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1256069879951749</v>
+        <v>0.1255681229058643</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05091709445089005</v>
+        <v>0.05257215995694751</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07532154561310168</v>
+        <v>0.07024155742647657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08592795454963695</v>
+        <v>0.09021005628653848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1132647465501153</v>
+        <v>0.1161530406924894</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05752285396572439</v>
+        <v>0.05313592695398316</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08915494953948123</v>
+        <v>0.08841084340477097</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09931536409511799</v>
+        <v>0.09799569159688684</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1255575935842203</v>
+        <v>0.1293454282595496</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05953761026566893</v>
+        <v>0.05965175368043559</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08988984949882321</v>
+        <v>0.08953956624774352</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1043263215961045</v>
+        <v>0.1024087020568087</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1326116244503126</v>
+        <v>0.1318644083902042</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1104927729832278</v>
+        <v>0.1103210257194436</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1411788262175322</v>
+        <v>0.1398028445436914</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1597126431535436</v>
+        <v>0.1603915847303965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1826565031199389</v>
+        <v>0.1815887613054812</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1177214001015265</v>
+        <v>0.1137720529109298</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1643178856339153</v>
+        <v>0.1641983857303729</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1773911067684474</v>
+        <v>0.1803830420631885</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.185406274045145</v>
+        <v>0.188784248752644</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1031143479624578</v>
+        <v>0.1007966440844033</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.138710362339199</v>
+        <v>0.1389764900997596</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1547291715733423</v>
+        <v>0.1572200634222759</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1762523170872846</v>
+        <v>0.174297787223872</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1303570902544773</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1298842288995563</v>
+        <v>0.1298842288995564</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04854339070398315</v>
@@ -1105,7 +1105,7 @@
         <v>0.118248145473047</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1219417427198281</v>
+        <v>0.1219417427198282</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02738641839035848</v>
+        <v>0.02711001826203167</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07389158730072169</v>
+        <v>0.07539758230404398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07828349960884749</v>
+        <v>0.07796110726366973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0839753213744782</v>
+        <v>0.08363137163721286</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03386845879029785</v>
+        <v>0.03266498092803196</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1044411134448448</v>
+        <v>0.1060523006044478</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09673545080376501</v>
+        <v>0.09774146608164107</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1088915251593978</v>
+        <v>0.1065968802906204</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03465605438842635</v>
+        <v>0.0352005554165802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09695465952938007</v>
+        <v>0.09704254802058092</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09716779218428587</v>
+        <v>0.09609102144129611</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1041314381144509</v>
+        <v>0.1027688094531398</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07049683928013364</v>
+        <v>0.06839899956372696</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1414877972344034</v>
+        <v>0.1439773662121513</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1392894222819768</v>
+        <v>0.1386062244965669</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.157614013847514</v>
+        <v>0.1547397512638135</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07727884798348827</v>
+        <v>0.07818237517631706</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.172247158270499</v>
+        <v>0.1761146484724608</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1698328826895741</v>
+        <v>0.1660423497585414</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1559161192129301</v>
+        <v>0.1557513299267224</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06583447214241993</v>
+        <v>0.06548821150572177</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1480705685581252</v>
+        <v>0.1434998654619872</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1442131046915119</v>
+        <v>0.1439855863335886</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.144429524085309</v>
+        <v>0.1442840680351234</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04100708516014438</v>
+        <v>0.04187760295770176</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09654236490025075</v>
+        <v>0.09719555100759257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08075043758588774</v>
+        <v>0.08542385695310385</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1193573658255857</v>
+        <v>0.1205905629796478</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03047869400323463</v>
+        <v>0.02999322569241255</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.139393518070449</v>
+        <v>0.138067901510537</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09332796104523512</v>
+        <v>0.09104129071332424</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1801101430484693</v>
+        <v>0.1777145685520695</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0443103471633497</v>
+        <v>0.04242296095853965</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1321537564938676</v>
+        <v>0.1324620512929886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09936921077057705</v>
+        <v>0.09897601344230438</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1588423743978336</v>
+        <v>0.1562027634752157</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1140731155412476</v>
+        <v>0.1220274181692614</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1916019891526252</v>
+        <v>0.1941244447683561</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1743885543321459</v>
+        <v>0.1755742980766973</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1967898789198786</v>
+        <v>0.1957759456427157</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1004202533554167</v>
+        <v>0.09292546162193624</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2412697284862314</v>
+        <v>0.2463270000658921</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1862723348288737</v>
+        <v>0.1895023138299398</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2487916374331506</v>
+        <v>0.2477484991322421</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0935022371295262</v>
+        <v>0.09303754017549176</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2010043507765437</v>
+        <v>0.2010280723713052</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1635017188406287</v>
+        <v>0.1615530267875969</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2115862214942173</v>
+        <v>0.2100737508731509</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.09211377235978922</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1707897897148689</v>
+        <v>0.1707897897148688</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0806971523643783</v>
@@ -1377,7 +1377,7 @@
         <v>0.08974691451689273</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1879671938758385</v>
+        <v>0.1879671938758386</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02477025446053044</v>
+        <v>0.02803675274151312</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09467561672251719</v>
+        <v>0.09514658095314334</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05741010657515482</v>
+        <v>0.05593865019807402</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1654712564644963</v>
+        <v>0.1690376165696134</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07871237019202569</v>
+        <v>0.07607398675232335</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09954613955220609</v>
+        <v>0.09632509427217742</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05923103790497893</v>
+        <v>0.06064605149196927</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.140970022949141</v>
+        <v>0.1407270757024452</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06094799145773208</v>
+        <v>0.06065248489843141</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1067204777032157</v>
+        <v>0.1053702946366489</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06636424673190718</v>
+        <v>0.06702995348739747</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1659727361446691</v>
+        <v>0.1641621284937229</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0776944243869683</v>
+        <v>0.0816867224782071</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1762999292685781</v>
+        <v>0.1848656174557806</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1259261529768278</v>
+        <v>0.1279231620684952</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2422141701935478</v>
+        <v>0.2465842447062657</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1504985347891303</v>
+        <v>0.1556877314173521</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.179232522474429</v>
+        <v>0.1759698698416179</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1279872099250122</v>
+        <v>0.1333524835153143</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2016570710563856</v>
+        <v>0.2078419456932571</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1086540902559235</v>
+        <v>0.1090204990945906</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1674062254037732</v>
+        <v>0.1651716053475144</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1144585417725106</v>
+        <v>0.1171769263921977</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2143189224025532</v>
+        <v>0.2151836431663824</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04169325706591555</v>
+        <v>0.04083251637822896</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08256396848883044</v>
+        <v>0.08128656580311379</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05920533525877366</v>
+        <v>0.05945305464277117</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08935423624330553</v>
+        <v>0.08621777003538915</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05898234076242174</v>
+        <v>0.05857256215933936</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08460546203440572</v>
+        <v>0.08520195375028168</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05878451667544664</v>
+        <v>0.0574582965598293</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1225841951735059</v>
+        <v>0.1228782635242976</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0547669398252039</v>
+        <v>0.05392145448923667</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09001831365036003</v>
+        <v>0.08759087312185523</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06433700488162519</v>
+        <v>0.06399723988907448</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1121806520028685</v>
+        <v>0.1110820375101626</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07857376807646491</v>
+        <v>0.0774884077814396</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1327048014436256</v>
+        <v>0.1322096407339646</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1037723218567437</v>
+        <v>0.1029582697788083</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1364108399670899</v>
+        <v>0.1335355044938316</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1035939664795323</v>
+        <v>0.1010624545258472</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1350025775245678</v>
+        <v>0.1365489039919272</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1035324421765861</v>
+        <v>0.1004219022907583</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1660540258050701</v>
+        <v>0.165967019122893</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08234816004239262</v>
+        <v>0.08353370634771133</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1243991349312166</v>
+        <v>0.1256099044729101</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.09537320937312029</v>
+        <v>0.09660905724238854</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.144150049813587</v>
+        <v>0.1431779585683156</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.1099693057351028</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1201891196343925</v>
+        <v>0.1201891196343926</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.07295885685719522</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0422779556826411</v>
+        <v>0.04401312932964078</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05388880839782071</v>
+        <v>0.05422586694973717</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06867264869290628</v>
+        <v>0.06996083112515539</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08202104258974864</v>
+        <v>0.08340215135144299</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06882733775575756</v>
+        <v>0.06850657482276991</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08018288841369602</v>
+        <v>0.08063241097995832</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08859566957366487</v>
+        <v>0.08919943201860302</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1043181433103956</v>
+        <v>0.1025652733146608</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06092839273139816</v>
+        <v>0.06064341107097585</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.07266307937836869</v>
+        <v>0.07067736263245172</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08350709085990012</v>
+        <v>0.08454574238596074</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.09658787966749775</v>
+        <v>0.09729951660537063</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07568643695766983</v>
+        <v>0.07811504529794622</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09339963719860825</v>
+        <v>0.09270740175247474</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1112150051520788</v>
+        <v>0.1092050574542431</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1204730642457082</v>
+        <v>0.120383621566543</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1090657882105952</v>
+        <v>0.1072517919099422</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1204879991896018</v>
+        <v>0.1225761566662406</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.138756603385613</v>
+        <v>0.1387237795834225</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1412788381613563</v>
+        <v>0.1396785751886924</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08754026779694066</v>
+        <v>0.08825779529404733</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1001144145047441</v>
+        <v>0.1007927576199593</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1155259689203821</v>
+        <v>0.115349844608776</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1234093883816532</v>
+        <v>0.1242876176496438</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0506005079674793</v>
+        <v>0.05072564420296714</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.09279444438169521</v>
+        <v>0.09250060057258822</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08415955811630285</v>
+        <v>0.0843449968116326</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1102144921849681</v>
+        <v>0.1096740802742392</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.07050587476787733</v>
+        <v>0.0700802020046396</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1119952580726624</v>
+        <v>0.1111766981195295</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.09880474789283292</v>
+        <v>0.09983557221183989</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1303419372563774</v>
+        <v>0.1309294497317474</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06216473828129911</v>
+        <v>0.06312957525298749</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.105247849121919</v>
+        <v>0.1052829263503196</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.09500765199792503</v>
+        <v>0.09515225705018535</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1226666724310728</v>
+        <v>0.1229501971917022</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06637043299411595</v>
+        <v>0.06620189561769277</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1140851299277312</v>
+        <v>0.1144735460232436</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1041296435324329</v>
+        <v>0.1047290231253397</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1299504596032464</v>
+        <v>0.1302675119909749</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.08838687479010104</v>
+        <v>0.08890486802097994</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1355567187974031</v>
+        <v>0.1339714806560046</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1216046031479011</v>
+        <v>0.1220763438412802</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1477387047118719</v>
+        <v>0.1483317118681589</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.07532482565275934</v>
+        <v>0.07503528001827912</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1210832459892789</v>
+        <v>0.1216662826989511</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.109623882212</v>
+        <v>0.1088872556888368</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1361884414991504</v>
+        <v>0.136862421940205</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5548</v>
+        <v>5808</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16604</v>
+        <v>17261</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12902</v>
+        <v>13241</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>29001</v>
+        <v>28568</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13125</v>
+        <v>13175</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18768</v>
+        <v>17728</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19235</v>
+        <v>19486</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31719</v>
+        <v>32469</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>21566</v>
+        <v>21470</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>40548</v>
+        <v>39122</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>36183</v>
+        <v>35552</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>65744</v>
+        <v>66335</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18242</v>
+        <v>18548</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>39155</v>
+        <v>40506</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31721</v>
+        <v>30973</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>48874</v>
+        <v>47950</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>30661</v>
+        <v>30368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>39899</v>
+        <v>38613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>39462</v>
+        <v>39607</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>48300</v>
+        <v>48342</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>42516</v>
+        <v>43542</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>69880</v>
+        <v>69540</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>62928</v>
+        <v>62361</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>91880</v>
+        <v>92297</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22552</v>
+        <v>22901</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>46954</v>
+        <v>48066</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39022</v>
+        <v>39627</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>38050</v>
+        <v>36684</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>29380</v>
+        <v>27907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>62597</v>
+        <v>62119</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>53506</v>
+        <v>52029</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>53860</v>
+        <v>54692</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>55252</v>
+        <v>56529</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>117759</v>
+        <v>116523</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>98847</v>
+        <v>100350</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>97788</v>
+        <v>97728</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44784</v>
+        <v>45494</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>80232</v>
+        <v>81219</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>67223</v>
+        <v>67571</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>65926</v>
+        <v>66582</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>52807</v>
+        <v>52101</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>95351</v>
+        <v>96779</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>83742</v>
+        <v>84085</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>79073</v>
+        <v>78356</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>86466</v>
+        <v>87448</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>164700</v>
+        <v>164842</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>141532</v>
+        <v>141785</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>135012</v>
+        <v>134970</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16235</v>
+        <v>16762</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24338</v>
+        <v>22696</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27374</v>
+        <v>28738</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35791</v>
+        <v>36704</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>19294</v>
+        <v>17822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30404</v>
+        <v>30150</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33401</v>
+        <v>32957</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>44746</v>
+        <v>46096</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>38953</v>
+        <v>39028</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>59699</v>
+        <v>59466</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>68321</v>
+        <v>67065</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>89165</v>
+        <v>88662</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35230</v>
+        <v>35175</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45617</v>
+        <v>45173</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50879</v>
+        <v>51095</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>57718</v>
+        <v>57381</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>39485</v>
+        <v>38161</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56036</v>
+        <v>55995</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>59658</v>
+        <v>60664</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>66075</v>
+        <v>67279</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>67463</v>
+        <v>65947</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>92123</v>
+        <v>92299</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>101328</v>
+        <v>102959</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>118508</v>
+        <v>117193</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9823</v>
+        <v>9724</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>27634</v>
+        <v>28197</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28962</v>
+        <v>28843</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31335</v>
+        <v>31207</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12581</v>
+        <v>12134</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>40520</v>
+        <v>41146</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>37464</v>
+        <v>37854</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>45948</v>
+        <v>44980</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>25303</v>
+        <v>25701</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>73875</v>
+        <v>73942</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>73580</v>
+        <v>72765</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>82796</v>
+        <v>81712</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25285</v>
+        <v>24533</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>52914</v>
+        <v>53845</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>51532</v>
+        <v>51279</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>58813</v>
+        <v>57740</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28706</v>
+        <v>29041</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>66827</v>
+        <v>68328</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>65773</v>
+        <v>64305</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>65791</v>
+        <v>65721</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>48068</v>
+        <v>47815</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>112823</v>
+        <v>109341</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>109205</v>
+        <v>109033</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>114837</v>
+        <v>114721</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8337</v>
+        <v>8514</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20527</v>
+        <v>20666</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17056</v>
+        <v>18043</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>24548</v>
+        <v>24801</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6329</v>
+        <v>6229</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>30610</v>
+        <v>30318</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>40924</v>
+        <v>40379</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>18210</v>
+        <v>17435</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>57118</v>
+        <v>57251</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>42710</v>
+        <v>42541</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>68760</v>
+        <v>67617</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23192</v>
+        <v>24809</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>40738</v>
+        <v>41274</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>36835</v>
+        <v>37085</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>40473</v>
+        <v>40264</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>20854</v>
+        <v>19298</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>52981</v>
+        <v>54091</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>40717</v>
+        <v>41423</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>56529</v>
+        <v>56292</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>38427</v>
+        <v>38236</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>86876</v>
+        <v>86886</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>70274</v>
+        <v>69437</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>91591</v>
+        <v>90937</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6708</v>
+        <v>7593</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>25939</v>
+        <v>26068</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>15106</v>
+        <v>14719</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>44794</v>
+        <v>45760</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>21893</v>
+        <v>21160</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>27787</v>
+        <v>26888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>16177</v>
+        <v>16563</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>37181</v>
+        <v>37117</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>33458</v>
+        <v>33295</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>59029</v>
+        <v>58283</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>35587</v>
+        <v>35944</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>88705</v>
+        <v>87738</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21041</v>
+        <v>22122</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>48303</v>
+        <v>50650</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>33134</v>
+        <v>33660</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>65569</v>
+        <v>66752</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>41860</v>
+        <v>43304</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>50031</v>
+        <v>49120</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>34955</v>
+        <v>36421</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>53187</v>
+        <v>54818</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>59646</v>
+        <v>59847</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>92596</v>
+        <v>91360</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>61377</v>
+        <v>62835</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>114544</v>
+        <v>115006</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>25642</v>
+        <v>25113</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>54655</v>
+        <v>53810</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>38872</v>
+        <v>39034</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>64307</v>
+        <v>62050</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>37644</v>
+        <v>37382</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>58612</v>
+        <v>59026</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>40637</v>
+        <v>39721</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>94642</v>
+        <v>94869</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>68636</v>
+        <v>67577</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>121952</v>
+        <v>118664</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>86717</v>
+        <v>86259</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>167345</v>
+        <v>165706</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>48325</v>
+        <v>47657</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>87847</v>
+        <v>87520</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>68133</v>
+        <v>67598</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>98173</v>
+        <v>96104</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>66116</v>
+        <v>64500</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>93526</v>
+        <v>94597</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>71571</v>
+        <v>69421</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>128203</v>
+        <v>128136</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>103203</v>
+        <v>104688</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>168529</v>
+        <v>170170</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>128549</v>
+        <v>130215</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>215035</v>
+        <v>213585</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>31403</v>
+        <v>32692</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>41870</v>
+        <v>42132</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>53467</v>
+        <v>54470</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>65459</v>
+        <v>66561</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>53927</v>
+        <v>53676</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>65872</v>
+        <v>66241</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>73195</v>
+        <v>73694</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>86585</v>
+        <v>85130</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>92994</v>
+        <v>92559</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>116151</v>
+        <v>112977</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>134008</v>
+        <v>135675</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>157253</v>
+        <v>158411</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>56218</v>
+        <v>58022</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>72569</v>
+        <v>72031</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>86590</v>
+        <v>85025</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>96146</v>
+        <v>96075</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>85454</v>
+        <v>84033</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>98983</v>
+        <v>100699</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>114636</v>
+        <v>114609</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>117262</v>
+        <v>115934</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>133612</v>
+        <v>134707</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>160032</v>
+        <v>161116</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>185390</v>
+        <v>185108</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>200920</v>
+        <v>202350</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>165743</v>
+        <v>166153</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>317467</v>
+        <v>316461</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>285667</v>
+        <v>286296</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>389253</v>
+        <v>387344</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>238253</v>
+        <v>236815</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>397144</v>
+        <v>394241</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>350218</v>
+        <v>353871</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>486520</v>
+        <v>488713</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>413689</v>
+        <v>420110</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>733289</v>
+        <v>733534</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>659248</v>
+        <v>660251</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>891102</v>
+        <v>893162</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>217398</v>
+        <v>216846</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>390306</v>
+        <v>391635</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>353452</v>
+        <v>355487</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>458956</v>
+        <v>460076</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>298677</v>
+        <v>300427</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>480695</v>
+        <v>475074</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>431033</v>
+        <v>432705</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>551456</v>
+        <v>553670</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>501266</v>
+        <v>499339</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>843619</v>
+        <v>847681</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>760668</v>
+        <v>755557</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>989330</v>
+        <v>994226</v>
       </c>
     </row>
     <row r="40">
